--- a/biology/Botanique/Orpin_pourpier/Orpin_pourpier.xlsx
+++ b/biology/Botanique/Orpin_pourpier/Orpin_pourpier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sedum cepaea
 L'Orpin pourpier ou Orpin paniculé (Sedum cepaea) est une espèce de plante herbacée de la famille des Crassulacées.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle ou bisannuelle, de 10  à   40 cm, qui se reconnaît notamment à ses feuilles plus ou moins spatulées, planes et verticillées par 4. L’inflorescence est glanduleuse (poils plus ou moins collants).
 Les fleurs sont composées de 5 pétales allant du blanc au rosé et se terminent en pointe.
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre au sud-ouest d'une ligne Caen-Corse, sur les murs, rochers. Plutôt acidiphile[1]. Présente également en Afrique du Nord.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre au sud-ouest d'une ligne Caen-Corse, sur les murs, rochers. Plutôt acidiphile. Présente également en Afrique du Nord.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc, rose
